--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Cxcl12-Itgav.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Cxcl12-Itgav.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.0280983213187</v>
+        <v>81.05837566666666</v>
       </c>
       <c r="H2">
-        <v>17.0280983213187</v>
+        <v>243.175127</v>
       </c>
       <c r="I2">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="J2">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N2">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O2">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P2">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q2">
-        <v>169.3154721536937</v>
+        <v>1244.962676563144</v>
       </c>
       <c r="R2">
-        <v>169.3154721536937</v>
+        <v>11204.66408906829</v>
       </c>
       <c r="S2">
-        <v>0.007465222513383515</v>
+        <v>0.03588518509013446</v>
       </c>
       <c r="T2">
-        <v>0.007465222513383515</v>
+        <v>0.03588518509013447</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.0280983213187</v>
+        <v>81.05837566666666</v>
       </c>
       <c r="H3">
-        <v>17.0280983213187</v>
+        <v>243.175127</v>
       </c>
       <c r="I3">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="J3">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N3">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O3">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P3">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q3">
-        <v>861.1573499430351</v>
+        <v>4100.951112690793</v>
       </c>
       <c r="R3">
-        <v>861.1573499430351</v>
+        <v>36908.56001421713</v>
       </c>
       <c r="S3">
-        <v>0.03796895318890197</v>
+        <v>0.118207069573172</v>
       </c>
       <c r="T3">
-        <v>0.03796895318890197</v>
+        <v>0.118207069573172</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.0280983213187</v>
+        <v>81.05837566666666</v>
       </c>
       <c r="H4">
-        <v>17.0280983213187</v>
+        <v>243.175127</v>
       </c>
       <c r="I4">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="J4">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N4">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O4">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P4">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q4">
-        <v>970.4195631749678</v>
+        <v>4894.074246771855</v>
       </c>
       <c r="R4">
-        <v>970.4195631749678</v>
+        <v>44046.66822094669</v>
       </c>
       <c r="S4">
-        <v>0.04278639086134767</v>
+        <v>0.1410682934488445</v>
       </c>
       <c r="T4">
-        <v>0.04278639086134767</v>
+        <v>0.1410682934488445</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.0280983213187</v>
+        <v>81.05837566666666</v>
       </c>
       <c r="H5">
-        <v>17.0280983213187</v>
+        <v>243.175127</v>
       </c>
       <c r="I5">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="J5">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N5">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O5">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P5">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q5">
-        <v>432.5296738864969</v>
+        <v>2061.494226641645</v>
       </c>
       <c r="R5">
-        <v>432.5296738864969</v>
+        <v>18553.4480397748</v>
       </c>
       <c r="S5">
-        <v>0.01907049732745564</v>
+        <v>0.05942114031040749</v>
       </c>
       <c r="T5">
-        <v>0.01907049732745564</v>
+        <v>0.0594211403104075</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>122.863246657766</v>
+        <v>123.018252</v>
       </c>
       <c r="H6">
-        <v>122.863246657766</v>
+        <v>369.054756</v>
       </c>
       <c r="I6">
-        <v>0.7741397893222943</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="J6">
-        <v>0.7741397893222943</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N6">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O6">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P6">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q6">
-        <v>1221.665991448443</v>
+        <v>1889.417731559848</v>
       </c>
       <c r="R6">
-        <v>1221.665991448443</v>
+        <v>17004.75958403863</v>
       </c>
       <c r="S6">
-        <v>0.05386399923875446</v>
+        <v>0.05446115476873756</v>
       </c>
       <c r="T6">
-        <v>0.05386399923875446</v>
+        <v>0.05446115476873758</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>122.863246657766</v>
+        <v>123.018252</v>
       </c>
       <c r="H7">
-        <v>122.863246657766</v>
+        <v>369.054756</v>
       </c>
       <c r="I7">
-        <v>0.7741397893222943</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="J7">
-        <v>0.7741397893222943</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N7">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O7">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P7">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q7">
-        <v>6213.529303194994</v>
+        <v>6223.808869490296</v>
       </c>
       <c r="R7">
-        <v>6213.529303194994</v>
+        <v>56014.27982541266</v>
       </c>
       <c r="S7">
-        <v>0.2739582995680027</v>
+        <v>0.1793969710512459</v>
       </c>
       <c r="T7">
-        <v>0.2739582995680027</v>
+        <v>0.1793969710512459</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>122.863246657766</v>
+        <v>123.018252</v>
       </c>
       <c r="H8">
-        <v>122.863246657766</v>
+        <v>369.054756</v>
       </c>
       <c r="I8">
-        <v>0.7741397893222943</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="J8">
-        <v>0.7741397893222943</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N8">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O8">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P8">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q8">
-        <v>7001.891573683032</v>
+        <v>7427.49227386348</v>
       </c>
       <c r="R8">
-        <v>7001.891573683032</v>
+        <v>66847.43046477133</v>
       </c>
       <c r="S8">
-        <v>0.3087176732713531</v>
+        <v>0.2140923097702328</v>
       </c>
       <c r="T8">
-        <v>0.3087176732713531</v>
+        <v>0.2140923097702328</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>122.863246657766</v>
+        <v>123.018252</v>
       </c>
       <c r="H9">
-        <v>122.863246657766</v>
+        <v>369.054756</v>
       </c>
       <c r="I9">
-        <v>0.7741397893222943</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="J9">
-        <v>0.7741397893222943</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N9">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O9">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P9">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q9">
-        <v>3120.841740911694</v>
+        <v>3128.626920830768</v>
       </c>
       <c r="R9">
-        <v>3120.841740911694</v>
+        <v>28157.64228747691</v>
       </c>
       <c r="S9">
-        <v>0.137599817244184</v>
+        <v>0.09018049958086052</v>
       </c>
       <c r="T9">
-        <v>0.137599817244184</v>
+        <v>0.09018049958086054</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.237343966245174</v>
+        <v>0.3624666666666667</v>
       </c>
       <c r="H10">
-        <v>0.237343966245174</v>
+        <v>1.0874</v>
       </c>
       <c r="I10">
-        <v>0.001495462744344978</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="J10">
-        <v>0.001495462744344978</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N10">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O10">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P10">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q10">
-        <v>2.359982010282395</v>
+        <v>5.567067780311111</v>
       </c>
       <c r="R10">
-        <v>2.359982010282395</v>
+        <v>50.10361002279999</v>
       </c>
       <c r="S10">
-        <v>0.0001040530473101001</v>
+        <v>0.0001604668649644098</v>
       </c>
       <c r="T10">
-        <v>0.0001040530473101001</v>
+        <v>0.0001604668649644099</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.237343966245174</v>
+        <v>0.3624666666666667</v>
       </c>
       <c r="H11">
-        <v>0.237343966245174</v>
+        <v>1.0874</v>
       </c>
       <c r="I11">
-        <v>0.001495462744344978</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="J11">
-        <v>0.001495462744344978</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N11">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O11">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P11">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q11">
-        <v>12.00313136204834</v>
+        <v>18.33811827284444</v>
       </c>
       <c r="R11">
-        <v>12.00313136204834</v>
+        <v>165.0430644556</v>
       </c>
       <c r="S11">
-        <v>0.0005292253881779002</v>
+        <v>0.0005285835317107381</v>
       </c>
       <c r="T11">
-        <v>0.0005292253881779002</v>
+        <v>0.0005285835317107381</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.237343966245174</v>
+        <v>0.3624666666666667</v>
       </c>
       <c r="H12">
-        <v>0.237343966245174</v>
+        <v>1.0874</v>
       </c>
       <c r="I12">
-        <v>0.001495462744344978</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="J12">
-        <v>0.001495462744344978</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N12">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O12">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P12">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q12">
-        <v>13.52606871887143</v>
+        <v>21.88470671977778</v>
       </c>
       <c r="R12">
-        <v>13.52606871887143</v>
+        <v>196.962360478</v>
       </c>
       <c r="S12">
-        <v>0.0005963726258048811</v>
+        <v>0.0006308114821968347</v>
       </c>
       <c r="T12">
-        <v>0.0005963726258048811</v>
+        <v>0.0006308114821968347</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.237343966245174</v>
+        <v>0.3624666666666667</v>
       </c>
       <c r="H13">
-        <v>0.237343966245174</v>
+        <v>1.0874</v>
       </c>
       <c r="I13">
-        <v>0.001495462744344978</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="J13">
-        <v>0.001495462744344978</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N13">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O13">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P13">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q13">
-        <v>6.028759429373714</v>
+        <v>9.218331042755555</v>
       </c>
       <c r="R13">
-        <v>6.028759429373714</v>
+        <v>82.96497938479999</v>
       </c>
       <c r="S13">
-        <v>0.0002658116830520971</v>
+        <v>0.0002657119943584407</v>
       </c>
       <c r="T13">
-        <v>0.0002658116830520971</v>
+        <v>0.0002657119943584408</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>18.5806919086426</v>
+        <v>24.16373066666667</v>
       </c>
       <c r="H14">
-        <v>18.5806919086426</v>
+        <v>72.491192</v>
       </c>
       <c r="I14">
-        <v>0.1170736840422721</v>
+        <v>0.1057018025331343</v>
       </c>
       <c r="J14">
-        <v>0.1170736840422721</v>
+        <v>0.1057018025331344</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N14">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O14">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P14">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q14">
-        <v>184.7533743398367</v>
+        <v>371.1268892215804</v>
       </c>
       <c r="R14">
-        <v>184.7533743398367</v>
+        <v>3340.142002994224</v>
       </c>
       <c r="S14">
-        <v>0.00814588904369796</v>
+        <v>0.01069747500255022</v>
       </c>
       <c r="T14">
-        <v>0.00814588904369796</v>
+        <v>0.01069747500255022</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>18.5806919086426</v>
+        <v>24.16373066666667</v>
       </c>
       <c r="H15">
-        <v>18.5806919086426</v>
+        <v>72.491192</v>
       </c>
       <c r="I15">
-        <v>0.1170736840422721</v>
+        <v>0.1057018025331343</v>
       </c>
       <c r="J15">
-        <v>0.1170736840422721</v>
+        <v>0.1057018025331344</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N15">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O15">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P15">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q15">
-        <v>939.676239954639</v>
+        <v>1222.50510634125</v>
       </c>
       <c r="R15">
-        <v>939.676239954639</v>
+        <v>11002.54595707125</v>
       </c>
       <c r="S15">
-        <v>0.04143089897557189</v>
+        <v>0.03523786121508295</v>
       </c>
       <c r="T15">
-        <v>0.04143089897557189</v>
+        <v>0.03523786121508296</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>18.5806919086426</v>
+        <v>24.16373066666667</v>
       </c>
       <c r="H16">
-        <v>18.5806919086426</v>
+        <v>72.491192</v>
       </c>
       <c r="I16">
-        <v>0.1170736840422721</v>
+        <v>0.1057018025331343</v>
       </c>
       <c r="J16">
-        <v>0.1170736840422721</v>
+        <v>0.1057018025331344</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N16">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O16">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P16">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q16">
-        <v>1058.900799445069</v>
+        <v>1458.937352112471</v>
       </c>
       <c r="R16">
-        <v>1058.900799445069</v>
+        <v>13130.43616901224</v>
       </c>
       <c r="S16">
-        <v>0.04668758257533336</v>
+        <v>0.04205285660450186</v>
       </c>
       <c r="T16">
-        <v>0.04668758257533336</v>
+        <v>0.04205285660450186</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>18.5806919086426</v>
+        <v>24.16373066666667</v>
       </c>
       <c r="H17">
-        <v>18.5806919086426</v>
+        <v>72.491192</v>
       </c>
       <c r="I17">
-        <v>0.1170736840422721</v>
+        <v>0.1057018025331343</v>
       </c>
       <c r="J17">
-        <v>0.1170736840422721</v>
+        <v>0.1057018025331344</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N17">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O17">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P17">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q17">
-        <v>471.9670077174109</v>
+        <v>614.5372498987981</v>
       </c>
       <c r="R17">
-        <v>471.9670077174109</v>
+        <v>5530.835249089184</v>
       </c>
       <c r="S17">
-        <v>0.02080931344766889</v>
+        <v>0.0177136097109993</v>
       </c>
       <c r="T17">
-        <v>0.02080931344766889</v>
+        <v>0.01771360971099931</v>
       </c>
     </row>
   </sheetData>
